--- a/ПКМ/resdata PKM Temp=-25, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-25, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>942.7896748053469</v>
       </c>
       <c r="E3" t="n">
-        <v>444.1634121623569</v>
+        <v>444.1278896896317</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.27659195793211</v>
+        <v>10.27646725860724</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>535.1607042298226</v>
+        <v>535.1611564002957</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>956.0941131605315</v>
+        <v>956.0949954160326</v>
       </c>
       <c r="E5" t="n">
-        <v>454.440004120289</v>
+        <v>454.4043569482389</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7786801414585871</v>
+        <v>0.7786800340997977</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1210673512280197</v>
+        <v>0.1210671767448917</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03149901027901131</v>
+        <v>0.03149910300071888</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06220390374925894</v>
+        <v>0.06220408958259225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006549593285122955</v>
+        <v>0.006549596571999505</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.1071104077833</v>
+        <v>462.1075741838812</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>872.5992045361328</v>
+        <v>872.6000812492499</v>
       </c>
       <c r="E6" t="n">
-        <v>454.440004120289</v>
+        <v>454.4043569482389</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7786801414585871</v>
+        <v>0.7786800340997977</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1210673512280197</v>
+        <v>0.1210671767448917</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03149901027901131</v>
+        <v>0.03149910300071888</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06220390374925894</v>
+        <v>0.06220408958259225</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006549593285122955</v>
+        <v>0.006549596571999505</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.8456779151983</v>
+        <v>291.8413364686216</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.4848209277865</v>
+        <v>683.4804235838095</v>
       </c>
       <c r="E7" t="n">
-        <v>454.440004120289</v>
+        <v>454.4043569482389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7786801414585871</v>
+        <v>0.7786800340997977</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1210673512280197</v>
+        <v>0.1210671767448917</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03149901027901131</v>
+        <v>0.03149910300071888</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06220390374925894</v>
+        <v>0.06220408958259225</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006549593285122955</v>
+        <v>0.006549596571999505</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.6802234105647</v>
+        <v>228.6770007907493</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.1861090574201</v>
+        <v>615.1829696604907</v>
       </c>
       <c r="E8" t="n">
-        <v>454.440004120289</v>
+        <v>454.4043569482389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7786801414585871</v>
+        <v>0.7786800340997977</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1210673512280197</v>
+        <v>0.1210671767448917</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03149901027901131</v>
+        <v>0.03149910300071888</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06220390374925894</v>
+        <v>0.06220408958259225</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006549593285122955</v>
+        <v>0.006549596571999505</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.7580051678152</v>
+        <v>227.7547812957512</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.1956664697892</v>
+        <v>614.1925262667078</v>
       </c>
       <c r="E9" t="n">
-        <v>454.440004120289</v>
+        <v>454.4043569482389</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7786801414585871</v>
+        <v>0.7786800340997977</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1210673512280197</v>
+        <v>0.1210671767448917</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03149901027901131</v>
+        <v>0.03149910300071888</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06220390374925894</v>
+        <v>0.06220408958259225</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006549593285122955</v>
+        <v>0.006549596571999505</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.0046092615513</v>
+        <v>168.999728440484</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.4560652321142</v>
+        <v>551.4511962037479</v>
       </c>
       <c r="E10" t="n">
-        <v>454.440004120289</v>
+        <v>454.4043569482389</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7786801414585871</v>
+        <v>0.7786800340997977</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1210673512280197</v>
+        <v>0.1210671767448917</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03149901027901131</v>
+        <v>0.03149910300071888</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06220390374925894</v>
+        <v>0.06220408958259225</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006549593285122955</v>
+        <v>0.006549596571999505</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.9075055146395</v>
+        <v>109.9047484657393</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>488.9752795910092</v>
+        <v>488.9726860100727</v>
       </c>
       <c r="E11" t="n">
-        <v>454.440004120289</v>
+        <v>454.4043569482389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7786801414585871</v>
+        <v>0.7786800340997977</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1210673512280197</v>
+        <v>0.1210671767448917</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03149901027901131</v>
+        <v>0.03149910300071888</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06220390374925894</v>
+        <v>0.06220408958259225</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006549593285122955</v>
+        <v>0.006549596571999505</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.741274450280443</v>
+        <v>9.741156246662719</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5353175076516702</v>
+        <v>0.5353110119445265</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980444462074313</v>
+        <v>8.980436296530931</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980444462074313</v>
+        <v>8.980436296530931</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980444462074313</v>
+        <v>8.980436296530931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980444462074313</v>
+        <v>8.980436296530931</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572024790694883</v>
+        <v>3.572021542801807</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.05094889585944178</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9059659359213658</v>
+        <v>0.9060539780759436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9696751248299934</v>
+        <v>0.9697875456447295</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9342984188443554</v>
+        <v>0.9342808970325404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5383226124688255</v>
+        <v>0.5382372611364107</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.98678969255039</v>
+        <v>44.98290364577927</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.82913262439976</v>
+        <v>31.826638903793</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490911639667925</v>
+        <v>0.8490906853858552</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.188471494716053</v>
+        <v>9.187838713268945</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372279846719167</v>
+        <v>0.8372280886308863</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.657022054332752</v>
+        <v>2.656806882669496</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8034989929412442</v>
+        <v>0.8034965901437663</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.312163519101821</v>
+        <v>1.311619146047831</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3385125351604477</v>
+        <v>0.3384439389805817</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1121245634650598</v>
+        <v>0.1121056926116882</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1250870300043662</v>
+        <v>0.125066132074037</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8963724173573073</v>
+        <v>0.8963713097429407</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40010.05056466664</v>
+        <v>40011.62855743735</v>
       </c>
       <c r="C2" t="n">
-        <v>40414.19248956226</v>
+        <v>40415.78642165389</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89249.60684108973</v>
+        <v>89249.88354081937</v>
       </c>
       <c r="C3" t="n">
-        <v>90151.11802130275</v>
+        <v>90151.39751597916</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36908.39851449442</v>
+        <v>36907.56533125218</v>
       </c>
       <c r="C4" t="n">
-        <v>37281.21062070143</v>
+        <v>37280.36902146685</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.1005171877809</v>
+        <v>505.100635473007</v>
       </c>
       <c r="C5" t="n">
-        <v>510.2025426139201</v>
+        <v>510.2026620939465</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31958.47848232263</v>
+        <v>31958.00045755844</v>
       </c>
       <c r="C6" t="n">
-        <v>32281.29139628549</v>
+        <v>32280.80854298832</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34967.47769634193</v>
+        <v>34966.44951496078</v>
       </c>
       <c r="C7" t="n">
-        <v>35320.68454175953</v>
+        <v>35319.64597470786</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.34004151349483</v>
+        <v>27.33706851721059</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.5282676345026</v>
+        <v>104.5309319060327</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.053537990949584</v>
+        <v>9.053846715703592</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.289370953871</v>
+        <v>511.292796834294</v>
       </c>
       <c r="C3" t="n">
-        <v>6.468498958057644</v>
+        <v>6.468165460755174</v>
       </c>
       <c r="D3" t="n">
-        <v>3444.689170048963</v>
+        <v>3444.701431683588</v>
       </c>
       <c r="E3" t="n">
-        <v>56.08608738669483</v>
+        <v>56.08243018505903</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284.0824138245318</v>
+        <v>284.0784398120062</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821115885255903</v>
+        <v>6.820712853646518</v>
       </c>
       <c r="D4" t="n">
-        <v>2774.922598393722</v>
+        <v>2774.927692106475</v>
       </c>
       <c r="E4" t="n">
-        <v>56.08608738669483</v>
+        <v>56.08243018505903</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.9994565811253</v>
+        <v>283.9954774675183</v>
       </c>
       <c r="C5" t="n">
-        <v>6.821115885255903</v>
+        <v>6.820712853646518</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.936017078482</v>
+        <v>1257.914940995615</v>
       </c>
       <c r="E5" t="n">
-        <v>56.08608738669483</v>
+        <v>56.08243018505903</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.1582225015841</v>
+        <v>167.1561946250496</v>
       </c>
       <c r="C6" t="n">
-        <v>6.821115885255903</v>
+        <v>6.820712853646518</v>
       </c>
       <c r="D6" t="n">
-        <v>710.073075263427</v>
+        <v>710.0640552891914</v>
       </c>
       <c r="E6" t="n">
-        <v>56.08608738669483</v>
+        <v>56.08243018505903</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.6839994077518</v>
+        <v>158.6793451066391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.597815631997485</v>
+        <v>0.5977443826684058</v>
       </c>
       <c r="D7" t="n">
-        <v>669.7587979915106</v>
+        <v>669.7385965149909</v>
       </c>
       <c r="E7" t="n">
-        <v>56.08608738669483</v>
+        <v>56.08243018505903</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.1071289399257</v>
+        <v>171.1032934204504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5922469151267414</v>
+        <v>0.5922152282075273</v>
       </c>
       <c r="D8" t="n">
-        <v>2786.169074603875</v>
+        <v>2786.165270222406</v>
       </c>
       <c r="E8" t="n">
-        <v>14.76104404531195</v>
+        <v>14.76131756211006</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.6839992839298</v>
+        <v>158.6793449828267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.597815631997485</v>
+        <v>0.5977443826684058</v>
       </c>
       <c r="D9" t="n">
-        <v>2755.984228675624</v>
+        <v>2755.979043087052</v>
       </c>
       <c r="E9" t="n">
-        <v>14.76104404531195</v>
+        <v>14.76131756211006</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.6839994077518</v>
+        <v>158.6793451066391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.597815631997485</v>
+        <v>0.5977443826684058</v>
       </c>
       <c r="D10" t="n">
-        <v>706.0315876008008</v>
+        <v>706.0225126638347</v>
       </c>
       <c r="E10" t="n">
-        <v>70.84713143200678</v>
+        <v>70.84374774716909</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.6839994077518</v>
+        <v>158.6793451066391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.597815631997485</v>
+        <v>0.5977443826684058</v>
       </c>
       <c r="D11" t="n">
-        <v>706.0315876008008</v>
+        <v>706.0225126638347</v>
       </c>
       <c r="E11" t="n">
-        <v>70.84713143200678</v>
+        <v>70.84076282394211</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.73636871804086</v>
+        <v>73.73920969916833</v>
       </c>
       <c r="C12" t="n">
-        <v>0.597815631997485</v>
+        <v>0.5977443826684058</v>
       </c>
       <c r="D12" t="n">
-        <v>309.2642064638761</v>
+        <v>309.2761132349195</v>
       </c>
       <c r="E12" t="n">
-        <v>70.84713143200678</v>
+        <v>70.84374774716909</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.73755110642338</v>
+        <v>73.73898140268693</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>309.2691619441583</v>
+        <v>309.2751564266125</v>
       </c>
       <c r="E13" t="n">
-        <v>70.84343502856917</v>
+        <v>70.84126707156432</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.13642744099661</v>
+        <v>73.13805866336492</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>306.7499226994688</v>
+        <v>306.7567586490956</v>
       </c>
       <c r="E14" t="n">
-        <v>61.94349601408155</v>
+        <v>61.94153920183928</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.7980538334229</v>
+        <v>114.7985823423261</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1680712091489549</v>
+        <v>0.1680741093406826</v>
       </c>
       <c r="D15" t="n">
-        <v>481.7371985286522</v>
+        <v>481.7394389888424</v>
       </c>
       <c r="E15" t="n">
-        <v>57.5086791824106</v>
+        <v>57.50862555715077</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.30085868432519</v>
+        <v>77.30091378777337</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1680711357683083</v>
+        <v>0.1680740590896984</v>
       </c>
       <c r="D16" t="n">
-        <v>323.7838405234513</v>
+        <v>323.7840740065716</v>
       </c>
       <c r="E16" t="n">
-        <v>57.50928934905478</v>
+        <v>57.50926093837712</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>622.8649410930094</v>
+        <v>622.8672944719269</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.46286573611373</v>
+        <v>78.46316219340622</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.27378021795647</v>
+        <v>95.27401417887403</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>398.9113177725837</v>
+        <v>398.9122973669456</v>
       </c>
       <c r="E19" t="n">
-        <v>78.46286573611373</v>
+        <v>78.46316219340622</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>136.1238603307322</v>
+        <v>136.1272197768786</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2237255552173041</v>
+        <v>0.2237247317617514</v>
       </c>
       <c r="D20" t="n">
-        <v>2738.030492290333</v>
+        <v>2738.037919774521</v>
       </c>
       <c r="E20" t="n">
-        <v>9.755472119303086</v>
+        <v>9.754905960195165</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.1431793701241</v>
+        <v>122.1430617075775</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2125392774564389</v>
+        <v>0.2125384951736638</v>
       </c>
       <c r="D21" t="n">
-        <v>512.9198470208748</v>
+        <v>512.9193467484869</v>
       </c>
       <c r="E21" t="n">
-        <v>9.755472119303086</v>
+        <v>9.754905960195165</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.759790552792</v>
+        <v>111.7602705488619</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>467.9382430445402</v>
+        <v>467.9402527880847</v>
       </c>
       <c r="E22" t="n">
-        <v>622.8649410930094</v>
+        <v>622.8672944719269</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>502.4400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>622.8649410930094</v>
+        <v>622.8672944719269</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.34830010525617</v>
+        <v>71.34832957752674</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>622.8649410930094</v>
+        <v>622.8672944719269</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.2491130754852</v>
+        <v>118.2546802524544</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1769170622620578</v>
+        <v>0.1769201150954554</v>
       </c>
       <c r="D25" t="n">
-        <v>2704.645019204429</v>
+        <v>2704.656610424916</v>
       </c>
       <c r="E25" t="n">
-        <v>47.75317645945736</v>
+        <v>47.75371071418353</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>508.5541734344072</v>
+        <v>508.5580970678676</v>
       </c>
       <c r="C26" t="n">
-        <v>5.887928704110358</v>
+        <v>5.887663683113106</v>
       </c>
       <c r="D26" t="n">
-        <v>3444.689170048963</v>
+        <v>3444.701431683588</v>
       </c>
       <c r="E26" t="n">
-        <v>47.18191478292216</v>
+        <v>47.1795919247316</v>
       </c>
       <c r="F26" t="n">
-        <v>6.918679072192585</v>
+        <v>6.918714615563376</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>205.7278635012238</v>
+        <v>205.7334480302333</v>
       </c>
       <c r="C27" t="n">
-        <v>0.446056474287188</v>
+        <v>0.4460484152507421</v>
       </c>
       <c r="D27" t="n">
-        <v>2870.699622639508</v>
+        <v>2870.711782411831</v>
       </c>
       <c r="E27" t="n">
-        <v>47.18191478292216</v>
+        <v>47.1795919247316</v>
       </c>
       <c r="F27" t="n">
-        <v>7.143634448153573</v>
+        <v>7.143667990557695</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.4756180086313</v>
+        <v>168.4737547979548</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5080652457097761</v>
+        <v>0.508059484694757</v>
       </c>
       <c r="D28" t="n">
-        <v>2786.169074603875</v>
+        <v>2786.165270222406</v>
       </c>
       <c r="E28" t="n">
-        <v>14.76104404531195</v>
+        <v>14.76131756211006</v>
       </c>
       <c r="F28" t="n">
-        <v>6.901440316391608</v>
+        <v>6.901436739454441</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196.2086171039068</v>
+        <v>196.2118596846943</v>
       </c>
       <c r="C29" t="n">
-        <v>0.446056474287188</v>
+        <v>0.4460484152507421</v>
       </c>
       <c r="D29" t="n">
-        <v>2850.555942609815</v>
+        <v>2850.563258188724</v>
       </c>
       <c r="E29" t="n">
-        <v>61.94295882823411</v>
+        <v>61.94090948684166</v>
       </c>
       <c r="F29" t="n">
-        <v>7.101145813035723</v>
+        <v>7.101169532423182</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>136.1234172225148</v>
+        <v>136.1288951790355</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2237121090851342</v>
+        <v>0.2237153494851501</v>
       </c>
       <c r="D30" t="n">
-        <v>2738.029667818445</v>
+        <v>2738.041037123299</v>
       </c>
       <c r="E30" t="n">
-        <v>61.94295882823411</v>
+        <v>61.94090948684166</v>
       </c>
       <c r="F30" t="n">
-        <v>7.15564045428367</v>
+        <v>7.155661698241971</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
@@ -2865,19 +2865,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.2490687566693</v>
+        <v>118.2559335717088</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1769168994693309</v>
+        <v>0.1769231944683269</v>
       </c>
       <c r="D31" t="n">
-        <v>2704.644942846627</v>
+        <v>2704.658944994189</v>
       </c>
       <c r="E31" t="n">
-        <v>52.18745610528087</v>
+        <v>52.18599464387442</v>
       </c>
       <c r="F31" t="n">
-        <v>7.178148941284658</v>
+        <v>7.178168652752847</v>
       </c>
       <c r="G31" t="n">
         <v>100</v>
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>108.9599580944031</v>
+        <v>108.9670950649029</v>
       </c>
       <c r="C32" t="n">
-        <v>0.009022000203975056</v>
+        <v>0.009018345993415463</v>
       </c>
       <c r="D32" t="n">
-        <v>2704.644942846627</v>
+        <v>2704.658944994189</v>
       </c>
       <c r="E32" t="n">
-        <v>4.434206665026764</v>
+        <v>4.432278263462152</v>
       </c>
       <c r="F32" t="n">
-        <v>8.541812377727174</v>
+        <v>8.542035770127203</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104.7269953987135</v>
+        <v>104.745114371936</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002101925620838662</v>
+        <v>0.002101815111233214</v>
       </c>
       <c r="D33" t="n">
-        <v>2697.376561961645</v>
+        <v>2697.410907603181</v>
       </c>
       <c r="E33" t="n">
-        <v>4.434206665026764</v>
+        <v>4.432278263462152</v>
       </c>
       <c r="F33" t="n">
-        <v>9.194603326825742</v>
+        <v>9.194718473864192</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.28406261211546</v>
+        <v>18.28322508468455</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002101925620838662</v>
+        <v>0.002101815111233214</v>
       </c>
       <c r="D34" t="n">
-        <v>76.7327275269777</v>
+        <v>76.729221809762</v>
       </c>
       <c r="E34" t="n">
-        <v>4.434206665026764</v>
+        <v>4.432278263462152</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20.30175470073175</v>
+        <v>20.30091641459802</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>85.82911704245129</v>
+        <v>85.82561133249541</v>
       </c>
       <c r="E35" t="n">
-        <v>4.434206665026764</v>
+        <v>4.432278263462152</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.2865790356577</v>
+        <v>496.2979714290535</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3460.050665276786</v>
+        <v>3460.075786785092</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623135490821343</v>
+        <v>7.623128559422367</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>326.8030445761531</v>
       </c>
       <c r="E41" t="n">
-        <v>8.899939014487632</v>
+        <v>8.899727869725034</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.2865790356577</v>
+        <v>511.2979714290535</v>
       </c>
       <c r="C42" t="n">
-        <v>6.468643401521143</v>
+        <v>6.468005866789675</v>
       </c>
       <c r="D42" t="n">
-        <v>3444.680778426107</v>
+        <v>3444.718288170559</v>
       </c>
       <c r="E42" t="n">
-        <v>8.899939014487632</v>
+        <v>8.899727869725034</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980444462074313</v>
+        <v>8.980436296530931</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980444462074313</v>
+        <v>8.980436296530931</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980444462074313</v>
+        <v>8.980436296530931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980444462074313</v>
+        <v>8.980436296530931</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572024790694883</v>
+        <v>3.572021542801807</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.05094889585944178</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.261070078004146</v>
+        <v>2.261549726384573</v>
       </c>
       <c r="C2" t="n">
-        <v>2.573569993485564</v>
+        <v>2.574184421335132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8785733761768889</v>
+        <v>0.8785500011734174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1695981685337833</v>
+        <v>0.1695412789143821</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>130.3500559918491</v>
+        <v>130.3324656974999</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.70834837707624</v>
+        <v>31.70680745010615</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.22646110378326</v>
+        <v>6.226423781056713</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.82662969067516</v>
+        <v>35.82452913156517</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.08192591216099</v>
+        <v>27.08059742166131</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8487722180991097</v>
+        <v>0.8487718841761291</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.970210406496379</v>
+        <v>6.969728710271886</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8363240184761163</v>
+        <v>0.83632341227513</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.742263869053641</v>
+        <v>1.74207768105105</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7918199283169459</v>
+        <v>0.7918165611545146</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03222950296414023</v>
+        <v>0.03212531858092561</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03337451717326706</v>
+        <v>0.03328785731298241</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04033527101719257</v>
+        <v>0.04031772955759619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04518561528796031</v>
+        <v>0.0451660043308839</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8926573370782422</v>
+        <v>0.8926565489882724</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37563.99235310195</v>
+        <v>37561.04825260123</v>
       </c>
       <c r="C2" t="n">
-        <v>37943.4266192949</v>
+        <v>37940.45278040529</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85081.729853521</v>
+        <v>85077.42846345817</v>
       </c>
       <c r="C3" t="n">
-        <v>85941.14126618282</v>
+        <v>85936.79642773552</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30727.29023474191</v>
+        <v>30724.31402491538</v>
       </c>
       <c r="C4" t="n">
-        <v>31037.66690377971</v>
+        <v>31034.66063122766</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>445.5957662678674</v>
+        <v>445.5611755111059</v>
       </c>
       <c r="C5" t="n">
-        <v>450.0967336039065</v>
+        <v>450.0617934455615</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28226.2707985048</v>
+        <v>28224.83440392311</v>
       </c>
       <c r="C6" t="n">
-        <v>28511.38464495435</v>
+        <v>28509.93374133647</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28109.83079934083</v>
+        <v>28106.60217516459</v>
       </c>
       <c r="C7" t="n">
-        <v>28393.76848418265</v>
+        <v>28390.507247641</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.48993481366779</v>
+        <v>21.48876420585109</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.3905608837354</v>
+        <v>105.3921340237506</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.992944287966791</v>
+        <v>8.993055128199474</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25881.74826996096</v>
+        <v>25881.91624125476</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1867.173415932539</v>
+        <v>1866.680947602899</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17060.45887113318</v>
+        <v>17060.25185428247</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.8146150092</v>
+        <v>5906.80924418917</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.406210508399</v>
+        <v>4267.402330334017</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.76517735991</v>
+        <v>15840.75077401319</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27882.15941881005</v>
+        <v>27881.64329613928</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7868529276340041</v>
+        <v>0.7867467445219115</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.5275832454419</v>
+        <v>459.5248481732943</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>864.3870030058666</v>
+        <v>864.3839108115915</v>
       </c>
       <c r="E6" t="n">
         <v>515.469582375</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>301.9345733713952</v>
+        <v>301.931237241623</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>689.4957560656766</v>
+        <v>689.492121657688</v>
       </c>
       <c r="E7" t="n">
         <v>515.469582375</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.0545974504165</v>
+        <v>235.052733174399</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.1710022966372</v>
+        <v>617.1690005732208</v>
       </c>
       <c r="E8" t="n">
         <v>515.469582375</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.1326917756641</v>
+        <v>234.1308269330856</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.1812202414804</v>
+        <v>616.1792182862754</v>
       </c>
       <c r="E9" t="n">
         <v>515.469582375</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.4638767750343</v>
+        <v>175.4628734390133</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.5562031695689</v>
+        <v>553.5551379394659</v>
       </c>
       <c r="E10" t="n">
         <v>515.469582375</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.5909766949862</v>
+        <v>110.5918799236065</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>485.034828195276</v>
+        <v>485.035777763111</v>
       </c>
       <c r="E11" t="n">
         <v>515.469582375</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.4319065350797</v>
+        <v>502.4292423570942</v>
       </c>
       <c r="C3" t="n">
-        <v>7.506243077335959</v>
+        <v>7.505810576463835</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.349988725503</v>
+        <v>3411.348613324922</v>
       </c>
       <c r="E3" t="n">
-        <v>61.48508531329419</v>
+        <v>61.48452350833104</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>293.8385168974588</v>
+        <v>293.8351249305646</v>
       </c>
       <c r="C4" t="n">
-        <v>7.866888634526259</v>
+        <v>7.866504954713131</v>
       </c>
       <c r="D4" t="n">
-        <v>2760.646113030523</v>
+        <v>2760.651724875875</v>
       </c>
       <c r="E4" t="n">
-        <v>61.48508531329419</v>
+        <v>61.48452350833104</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.5344510203512</v>
+        <v>293.531592438813</v>
       </c>
       <c r="C5" t="n">
-        <v>7.866888634526259</v>
+        <v>7.866504954713131</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.201758449613</v>
+        <v>1309.186193773193</v>
       </c>
       <c r="E5" t="n">
-        <v>61.48508531329419</v>
+        <v>61.48452350833104</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.7593175916218</v>
+        <v>166.758868542485</v>
       </c>
       <c r="C6" t="n">
-        <v>7.866888634526259</v>
+        <v>7.866504954713131</v>
       </c>
       <c r="D6" t="n">
-        <v>708.9396533579361</v>
+        <v>708.9374899922088</v>
       </c>
       <c r="E6" t="n">
-        <v>61.48508531329419</v>
+        <v>61.48452350833104</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.3046519073076</v>
+        <v>164.3037961225677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6889349050019057</v>
+        <v>0.6889202381765955</v>
       </c>
       <c r="D7" t="n">
-        <v>694.2049265326408</v>
+        <v>694.2011965906153</v>
       </c>
       <c r="E7" t="n">
-        <v>61.48508531329419</v>
+        <v>61.48452350833104</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.3552080020302</v>
+        <v>176.3540099657355</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6818129307392811</v>
+        <v>0.6818131199527494</v>
       </c>
       <c r="D8" t="n">
-        <v>2792.026649302313</v>
+        <v>2792.024951806909</v>
       </c>
       <c r="E8" t="n">
-        <v>16.86373714418785</v>
+        <v>16.86497359682467</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.3046517719204</v>
+        <v>164.3037959871835</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6889349050019057</v>
+        <v>0.6889202381765955</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.078857649951</v>
+        <v>2762.077955602773</v>
       </c>
       <c r="E9" t="n">
-        <v>16.86373714418785</v>
+        <v>16.86497359682467</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.3046519073076</v>
+        <v>164.3037961225677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6889349050019057</v>
+        <v>0.6889202381765955</v>
       </c>
       <c r="D10" t="n">
-        <v>731.4713133583957</v>
+        <v>731.4231783062181</v>
       </c>
       <c r="E10" t="n">
-        <v>78.34882245748203</v>
+        <v>78.34949710515571</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3046519073076</v>
+        <v>164.3037961225677</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6889349050019057</v>
+        <v>0.6889202381765955</v>
       </c>
       <c r="D11" t="n">
-        <v>731.4713133583957</v>
+        <v>731.4231783062181</v>
       </c>
       <c r="E11" t="n">
-        <v>78.34882245748203</v>
+        <v>78.35690036548854</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.98410407936734</v>
+        <v>67.9848385132974</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6889349050019057</v>
+        <v>0.6889202381765955</v>
       </c>
       <c r="D12" t="n">
-        <v>285.1662305306618</v>
+        <v>285.1693060567419</v>
       </c>
       <c r="E12" t="n">
-        <v>78.34882245748203</v>
+        <v>78.34949710515571</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.98476987576299</v>
+        <v>67.98633193292289</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>285.1690186292122</v>
+        <v>285.175559923147</v>
       </c>
       <c r="E13" t="n">
-        <v>72.94982759157735</v>
+        <v>72.94850753348959</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67.98476987576299</v>
+        <v>67.98633193292289</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>285.1690186292122</v>
+        <v>285.175559923147</v>
       </c>
       <c r="E14" t="n">
-        <v>72.94982759157735</v>
+        <v>72.94850753348959</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112.9390432501453</v>
+        <v>112.9402200527301</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1581205708094719</v>
+        <v>0.158126713270129</v>
       </c>
       <c r="D15" t="n">
-        <v>473.8592037444851</v>
+        <v>473.864189007276</v>
       </c>
       <c r="E15" t="n">
-        <v>60.62335475620855</v>
+        <v>60.62306496064075</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.11839852317087</v>
+        <v>77.1187985197493</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1581208587673651</v>
+        <v>0.1581269566529776</v>
       </c>
       <c r="D16" t="n">
-        <v>323.0105151925378</v>
+        <v>323.012197882847</v>
       </c>
       <c r="E16" t="n">
-        <v>60.62348827153662</v>
+        <v>60.62424280702007</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.47097220940142</v>
+        <v>94.47187827693739</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5499606407638</v>
+        <v>395.5537543455368</v>
       </c>
       <c r="E19" t="n">
         <v>81.37817054266749</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>124.3696917073689</v>
+        <v>124.3699558565515</v>
       </c>
       <c r="C20" t="n">
-        <v>0.227773815823251</v>
+        <v>0.2277717173332602</v>
       </c>
       <c r="D20" t="n">
-        <v>2705.911803195996</v>
+        <v>2705.91909721811</v>
       </c>
       <c r="E20" t="n">
-        <v>12.60697126974006</v>
+        <v>12.60555116403931</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.717400265591</v>
+        <v>122.7171047714935</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2163851250320885</v>
+        <v>0.2163831314665972</v>
       </c>
       <c r="D21" t="n">
-        <v>515.3615942595642</v>
+        <v>515.3603375814084</v>
       </c>
       <c r="E21" t="n">
-        <v>12.60697126974006</v>
+        <v>12.60555116403931</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.8921551784045</v>
+        <v>109.8932543203016</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>460.1184537319796</v>
+        <v>460.1230558391028</v>
       </c>
       <c r="E22" t="n">
         <v>646.0076231702778</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.24716964689935</v>
+        <v>71.24728378505473</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.5001001562719</v>
+        <v>114.5012878568934</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1664427061152336</v>
+        <v>0.1664491718632937</v>
       </c>
       <c r="D25" t="n">
-        <v>2661.878787200507</v>
+        <v>2661.890343113947</v>
       </c>
       <c r="E25" t="n">
-        <v>48.01643129351609</v>
+        <v>48.01758020499237</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>499.5850492043686</v>
+        <v>499.5822800527048</v>
       </c>
       <c r="C26" t="n">
-        <v>6.918554085548255</v>
+        <v>6.918102746208217</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.349988725503</v>
+        <v>3411.348613324922</v>
       </c>
       <c r="E26" t="n">
-        <v>56.08608738669483</v>
+        <v>56.08243018505903</v>
       </c>
       <c r="F26" t="n">
-        <v>6.804999162885741</v>
+        <v>6.805025843841435</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.5247895429835</v>
+        <v>194.5273144318547</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5041072785632507</v>
+        <v>0.5040956435633115</v>
       </c>
       <c r="D27" t="n">
-        <v>2843.845031480964</v>
+        <v>2843.85111368426</v>
       </c>
       <c r="E27" t="n">
-        <v>56.08608738669483</v>
+        <v>56.08243018505903</v>
       </c>
       <c r="F27" t="n">
-        <v>7.031853955999976</v>
+        <v>7.031877310161053</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.4379120351302</v>
+        <v>173.4371817586532</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5850404619318004</v>
+        <v>0.5850406954418723</v>
       </c>
       <c r="D28" t="n">
-        <v>2792.026649302313</v>
+        <v>2792.024951806909</v>
       </c>
       <c r="E28" t="n">
-        <v>16.86373714418785</v>
+        <v>16.86497359682467</v>
       </c>
       <c r="F28" t="n">
-        <v>6.852083805840844</v>
+        <v>6.852079828207934</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.9950126288144</v>
+        <v>188.9960889642425</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5041072785632507</v>
+        <v>0.5040956435633115</v>
       </c>
       <c r="D29" t="n">
-        <v>2831.866228489767</v>
+        <v>2831.869236244183</v>
       </c>
       <c r="E29" t="n">
-        <v>72.94982453088268</v>
+        <v>72.94740378188369</v>
       </c>
       <c r="F29" t="n">
-        <v>7.006087606284519</v>
+        <v>7.006104446900335</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.3693143460893</v>
+        <v>124.3696270017441</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2277663486565355</v>
+        <v>0.2277685479991299</v>
       </c>
       <c r="D30" t="n">
-        <v>2705.910181935793</v>
+        <v>2705.917684346037</v>
       </c>
       <c r="E30" t="n">
-        <v>72.94982453088268</v>
+        <v>72.94740378188369</v>
       </c>
       <c r="F30" t="n">
-        <v>7.067689886848176</v>
+        <v>7.067704433787547</v>
       </c>
       <c r="G30" t="n">
-        <v>99.71263985129603</v>
+        <v>99.71296205709668</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.4999350480805</v>
+        <v>114.5008708704809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1664418072956379</v>
+        <v>0.1664469017988546</v>
       </c>
       <c r="D31" t="n">
-        <v>2661.878125019435</v>
+        <v>2661.888476698293</v>
       </c>
       <c r="E31" t="n">
-        <v>60.34290106819022</v>
+        <v>60.34191902623532</v>
       </c>
       <c r="F31" t="n">
-        <v>7.095468381154864</v>
+        <v>7.095481486236658</v>
       </c>
       <c r="G31" t="n">
-        <v>98.37849690458874</v>
+        <v>98.37889898211728</v>
       </c>
     </row>
     <row r="32">
@@ -5301,19 +5301,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.64199590454001</v>
+        <v>87.64705433640876</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02380186433639296</v>
+        <v>0.02379806803379444</v>
       </c>
       <c r="D32" t="n">
-        <v>2661.878125019435</v>
+        <v>2661.888476698293</v>
       </c>
       <c r="E32" t="n">
-        <v>12.32633932004073</v>
+        <v>12.32426472646952</v>
       </c>
       <c r="F32" t="n">
-        <v>7.979940813512809</v>
+        <v>7.980042815882564</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -5326,19 +5326,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.54403443244939</v>
+        <v>29.56336608863541</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002557113411786474</v>
+        <v>0.002556993421486241</v>
       </c>
       <c r="D33" t="n">
-        <v>2555.426121303421</v>
+        <v>2555.462724318048</v>
       </c>
       <c r="E33" t="n">
-        <v>12.32633932004073</v>
+        <v>12.32426472646952</v>
       </c>
       <c r="F33" t="n">
-        <v>8.685352276158611</v>
+        <v>8.685494827713763</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.44507583003696</v>
+        <v>21.44430982433653</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002557113411786474</v>
+        <v>0.002556993421486241</v>
       </c>
       <c r="D34" t="n">
-        <v>89.96036632178294</v>
+        <v>89.95716169168787</v>
       </c>
       <c r="E34" t="n">
-        <v>12.32633932004073</v>
+        <v>12.32426472646952</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.46543732406036</v>
+        <v>23.46467071826152</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.05670551494165</v>
+        <v>99.05350091352497</v>
       </c>
       <c r="E35" t="n">
-        <v>12.32633932004073</v>
+        <v>12.32426472646952</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.2865790356577</v>
+        <v>496.2979714290535</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3460.050665276786</v>
+        <v>3460.075786785092</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623135490821343</v>
+        <v>7.623128559422367</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.2865790356577</v>
+        <v>511.2979714290535</v>
       </c>
       <c r="C42" t="n">
-        <v>6.468643401521143</v>
+        <v>6.468005866789675</v>
       </c>
       <c r="D42" t="n">
-        <v>3444.680778426107</v>
+        <v>3444.718288170559</v>
       </c>
       <c r="E42" t="n">
-        <v>8.899939014487632</v>
+        <v>8.899727869725034</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-25, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-25, Volume=10x15x6.xlsx
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9060539780759436</v>
+        <v>1.029516872357928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9697875456447295</v>
+        <v>1.077715312410909</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9342808970325404</v>
+        <v>0.9552772058651021</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5382372611364107</v>
+        <v>0.5061127658951198</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.98290364577927</v>
+        <v>51.3820897442749</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.826638903793</v>
+        <v>34.83602729818185</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490906853858552</v>
+        <v>0.8492986080032967</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.187838713268945</v>
+        <v>10.3659785314103</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372280886308863</v>
+        <v>0.8367137327700762</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.656806882669496</v>
+        <v>3.272719335001534</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8034965901437663</v>
+        <v>0.8084526278503389</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.311619146047831</v>
+        <v>2.907364579681214</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3384439389805817</v>
+        <v>0.4895861854283129</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1121056926116882</v>
+        <v>0.1580111389784339</v>
       </c>
       <c r="C12" t="n">
-        <v>0.125066132074037</v>
+        <v>0.1757094967451413</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8963713097429407</v>
+        <v>0.8992748935341949</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40011.62855743735</v>
+        <v>39814.2203115981</v>
       </c>
       <c r="C2" t="n">
-        <v>40415.78642165389</v>
+        <v>40216.38415312939</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89249.88354081937</v>
+        <v>87006.55647842883</v>
       </c>
       <c r="C3" t="n">
-        <v>90151.39751597916</v>
+        <v>87885.41058427155</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36907.56533125218</v>
+        <v>37586.12601035064</v>
       </c>
       <c r="C4" t="n">
-        <v>37280.36902146685</v>
+        <v>37965.78384883903</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.100635473007</v>
+        <v>506.6240286845339</v>
       </c>
       <c r="C5" t="n">
-        <v>510.2026620939465</v>
+        <v>511.7414431156909</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31958.00045755844</v>
+        <v>32630.04359733816</v>
       </c>
       <c r="C6" t="n">
-        <v>32280.80854298832</v>
+        <v>32959.63999731128</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34966.44951496078</v>
+        <v>36287.44027817238</v>
       </c>
       <c r="C7" t="n">
-        <v>35319.64597470786</v>
+        <v>36653.98007896201</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.33706851721059</v>
+        <v>30.39917458106913</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.5309319060327</v>
+        <v>101.672189418767</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.053846715703592</v>
+        <v>8.850483139110796</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.5248481732943</v>
+        <v>459.8669944218004</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>864.3839108115915</v>
+        <v>864.7707469612742</v>
       </c>
       <c r="E6" t="n">
         <v>515.469582375</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>301.931237241623</v>
+        <v>306.319323227843</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>689.492121657688</v>
+        <v>694.2749241440597</v>
       </c>
       <c r="E7" t="n">
         <v>515.469582375</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.052733174399</v>
+        <v>238.2676817712415</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.1690005732208</v>
+        <v>620.6221129075293</v>
       </c>
       <c r="E8" t="n">
         <v>515.469582375</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.1308269330856</v>
+        <v>237.3436032127901</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.1792182862754</v>
+        <v>619.6293454182085</v>
       </c>
       <c r="E9" t="n">
         <v>515.469582375</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.4628734390133</v>
+        <v>177.4717852187528</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.5551379394659</v>
+        <v>555.6883465226938</v>
       </c>
       <c r="E10" t="n">
         <v>515.469582375</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.5918799236065</v>
+        <v>110.1587189439382</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>485.035777763111</v>
+        <v>484.5804066320786</v>
       </c>
       <c r="E11" t="n">
         <v>515.469582375</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.4292423570942</v>
+        <v>501.5355537754776</v>
       </c>
       <c r="C3" t="n">
-        <v>7.505810576463835</v>
+        <v>8.070982369236548</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.348613324922</v>
+        <v>3402.450296583654</v>
       </c>
       <c r="E3" t="n">
-        <v>61.48452350833104</v>
+        <v>61.26621706611077</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>293.8351249305646</v>
+        <v>298.4540310589796</v>
       </c>
       <c r="C4" t="n">
-        <v>7.866504954713131</v>
+        <v>8.402419209600486</v>
       </c>
       <c r="D4" t="n">
-        <v>2760.651724875875</v>
+        <v>2752.557607892493</v>
       </c>
       <c r="E4" t="n">
-        <v>61.48452350833104</v>
+        <v>61.26621706611077</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.531592438813</v>
+        <v>297.7576352880114</v>
       </c>
       <c r="C5" t="n">
-        <v>7.866504954713131</v>
+        <v>8.402419209600486</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.186193773193</v>
+        <v>1332.408682890605</v>
       </c>
       <c r="E5" t="n">
-        <v>61.48452350833104</v>
+        <v>61.26621706611077</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.758868542485</v>
+        <v>168.9888674211122</v>
       </c>
       <c r="C6" t="n">
-        <v>7.866504954713131</v>
+        <v>8.402419209600486</v>
       </c>
       <c r="D6" t="n">
-        <v>708.9374899922088</v>
+        <v>718.9032978998584</v>
       </c>
       <c r="E6" t="n">
-        <v>61.48452350833104</v>
+        <v>61.26621706611077</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.3037961225677</v>
+        <v>166.1146445704915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6889202381765955</v>
+        <v>0.7205152044633073</v>
       </c>
       <c r="D7" t="n">
-        <v>694.2011965906153</v>
+        <v>702.0993083333572</v>
       </c>
       <c r="E7" t="n">
-        <v>61.48452350833104</v>
+        <v>61.26621706611077</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.3540099657355</v>
+        <v>177.9085934489049</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6818131199527494</v>
+        <v>0.7134244771011535</v>
       </c>
       <c r="D8" t="n">
-        <v>2792.024951806909</v>
+        <v>2793.491575950646</v>
       </c>
       <c r="E8" t="n">
-        <v>16.86497359682467</v>
+        <v>17.15976280545123</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.3037959871835</v>
+        <v>166.1146444312548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6889202381765955</v>
+        <v>0.7205152044633073</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.077955602773</v>
+        <v>2763.968672641447</v>
       </c>
       <c r="E9" t="n">
-        <v>16.86497359682467</v>
+        <v>17.15976280545123</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.3037961225677</v>
+        <v>166.1146445704915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6889202381765955</v>
+        <v>0.7205152044633073</v>
       </c>
       <c r="D10" t="n">
-        <v>731.4231783062181</v>
+        <v>737.2232297368539</v>
       </c>
       <c r="E10" t="n">
-        <v>78.34949710515571</v>
+        <v>78.42597987156199</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3037961225677</v>
+        <v>166.1146445704915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6889202381765955</v>
+        <v>0.7205152044633073</v>
       </c>
       <c r="D11" t="n">
-        <v>731.4231783062181</v>
+        <v>737.2232297368539</v>
       </c>
       <c r="E11" t="n">
-        <v>78.35690036548854</v>
+        <v>78.42327171643586</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.9848385132974</v>
+        <v>65.43940380308851</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6889202381765955</v>
+        <v>0.7205152044633073</v>
       </c>
       <c r="D12" t="n">
-        <v>285.1693060567419</v>
+        <v>274.5117718665007</v>
       </c>
       <c r="E12" t="n">
-        <v>78.34949710515571</v>
+        <v>78.42597987156199</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.98633193292289</v>
+        <v>65.43812103011476</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>285.175559923147</v>
+        <v>274.5064018666909</v>
       </c>
       <c r="E13" t="n">
-        <v>72.94850753348959</v>
+        <v>78.42606444130163</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67.98633193292289</v>
+        <v>65.43812103011476</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>285.175559923147</v>
+        <v>274.5064018666909</v>
       </c>
       <c r="E14" t="n">
-        <v>72.94850753348959</v>
+        <v>78.42606444130163</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112.9402200527301</v>
+        <v>111.7248042059603</v>
       </c>
       <c r="C15" t="n">
-        <v>0.158126713270129</v>
+        <v>0.1518861888071328</v>
       </c>
       <c r="D15" t="n">
-        <v>473.864189007276</v>
+        <v>468.7164865957851</v>
       </c>
       <c r="E15" t="n">
-        <v>60.62306496064075</v>
+        <v>61.05511293195038</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.1187985197493</v>
+        <v>76.94858459227129</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1581269566529776</v>
+        <v>0.1518862624259307</v>
       </c>
       <c r="D16" t="n">
-        <v>323.012197882847</v>
+        <v>322.2932313806433</v>
       </c>
       <c r="E16" t="n">
-        <v>60.62424280702007</v>
+        <v>61.05504331708827</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.47187827693739</v>
+        <v>93.87503227624093</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5537543455368</v>
+        <v>393.0547601406208</v>
       </c>
       <c r="E19" t="n">
         <v>81.37817054266749</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>124.3699558565515</v>
+        <v>124.6759982635531</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2277717173332602</v>
+        <v>0.2299414732457893</v>
       </c>
       <c r="D20" t="n">
-        <v>2705.91909721811</v>
+        <v>2692.83828573028</v>
       </c>
       <c r="E20" t="n">
-        <v>12.60555116403931</v>
+        <v>14.11013211360504</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.7171047714935</v>
+        <v>123.0214557296693</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2163831314665972</v>
+        <v>0.2184443995834999</v>
       </c>
       <c r="D21" t="n">
-        <v>515.3603375814084</v>
+        <v>516.6547671530296</v>
       </c>
       <c r="E21" t="n">
-        <v>12.60555116403931</v>
+        <v>14.11013211360504</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.8932543203016</v>
+        <v>108.7611677832175</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>460.1230558391028</v>
+        <v>455.3830095083316</v>
       </c>
       <c r="E22" t="n">
         <v>646.0076231702778</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.24728378505473</v>
+        <v>71.17209854901367</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.5012878568934</v>
+        <v>113.2746376403283</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1664491718632937</v>
+        <v>0.1598801987443504</v>
       </c>
       <c r="D25" t="n">
-        <v>2661.890343113947</v>
+        <v>2641.954356320256</v>
       </c>
       <c r="E25" t="n">
-        <v>48.01758020499237</v>
+        <v>46.94505415356119</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>499.5822800527048</v>
+        <v>498.926213766211</v>
       </c>
       <c r="C26" t="n">
-        <v>6.918102746208217</v>
+        <v>7.532022842673363</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.348613324922</v>
+        <v>3402.450296583654</v>
       </c>
       <c r="E26" t="n">
-        <v>56.08243018505903</v>
+        <v>61.26621706611077</v>
       </c>
       <c r="F26" t="n">
-        <v>6.805025843841435</v>
+        <v>6.756516042680459</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.5273144318547</v>
+        <v>190.6795556595069</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5040956435633115</v>
+        <v>0.5336760384762748</v>
       </c>
       <c r="D27" t="n">
-        <v>2843.85111368426</v>
+        <v>2833.849378061278</v>
       </c>
       <c r="E27" t="n">
-        <v>56.08243018505903</v>
+        <v>61.26621706611077</v>
       </c>
       <c r="F27" t="n">
-        <v>7.031877310161053</v>
+        <v>6.984871926679515</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.4371817586532</v>
+        <v>175.053814201057</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5850406954418723</v>
+        <v>0.6174755593166747</v>
       </c>
       <c r="D28" t="n">
-        <v>2792.024951806909</v>
+        <v>2793.491575950646</v>
       </c>
       <c r="E28" t="n">
-        <v>16.86497359682467</v>
+        <v>17.15976280545123</v>
       </c>
       <c r="F28" t="n">
-        <v>6.852079828207934</v>
+        <v>6.8315060385432</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.9960889642425</v>
+        <v>186.6523809672491</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5040956435633115</v>
+        <v>0.5336760384762748</v>
       </c>
       <c r="D29" t="n">
-        <v>2831.869236244183</v>
+        <v>2825.019009442334</v>
       </c>
       <c r="E29" t="n">
-        <v>72.94740378188369</v>
+        <v>78.42597987156199</v>
       </c>
       <c r="F29" t="n">
-        <v>7.006104446900335</v>
+        <v>6.96575074957624</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.3696270017441</v>
+        <v>124.6772795825722</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2277685479991299</v>
+        <v>0.2299410956273342</v>
       </c>
       <c r="D30" t="n">
-        <v>2705.917684346037</v>
+        <v>2692.843695236676</v>
       </c>
       <c r="E30" t="n">
-        <v>72.94740378188369</v>
+        <v>78.42597987156199</v>
       </c>
       <c r="F30" t="n">
-        <v>7.067704433787547</v>
+        <v>7.030588592135373</v>
       </c>
       <c r="G30" t="n">
-        <v>99.71296205709668</v>
+        <v>99.0956224351067</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.5008708704809</v>
+        <v>113.2756424049397</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1664469017988546</v>
+        <v>0.1598854910662497</v>
       </c>
       <c r="D31" t="n">
-        <v>2661.888476698293</v>
+        <v>2641.958637860907</v>
       </c>
       <c r="E31" t="n">
-        <v>60.34191902623532</v>
+        <v>64.3159210931728</v>
       </c>
       <c r="F31" t="n">
-        <v>7.095481486236658</v>
+        <v>7.061787971305774</v>
       </c>
       <c r="G31" t="n">
-        <v>98.37889898211728</v>
+        <v>97.56633885966423</v>
       </c>
     </row>
     <row r="32">
@@ -5301,19 +5301,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.64705433640876</v>
+        <v>78.19249679251686</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02379806803379444</v>
+        <v>0.03299138772775063</v>
       </c>
       <c r="D32" t="n">
-        <v>2661.888476698293</v>
+        <v>2641.958637860907</v>
       </c>
       <c r="E32" t="n">
-        <v>12.32426472646952</v>
+        <v>17.37102112421336</v>
       </c>
       <c r="F32" t="n">
-        <v>7.980042815882564</v>
+        <v>7.77410750238514</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.56336608863541</v>
+        <v>23.23571848661413</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002556993421486241</v>
+        <v>0.002851432675190182</v>
       </c>
       <c r="D33" t="n">
-        <v>2555.462724318048</v>
+        <v>2474.589974908293</v>
       </c>
       <c r="E33" t="n">
-        <v>12.32426472646952</v>
+        <v>17.37102112421336</v>
       </c>
       <c r="F33" t="n">
-        <v>8.685494827713763</v>
+        <v>8.362829331149891</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>97.19044190628347</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.44430982433653</v>
+        <v>23.23571848661413</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002556993421486241</v>
+        <v>0.002851432675190182</v>
       </c>
       <c r="D34" t="n">
-        <v>89.95716169168787</v>
+        <v>97.45071452704491</v>
       </c>
       <c r="E34" t="n">
-        <v>12.32426472646952</v>
+        <v>17.37102112421336</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.46467071826152</v>
+        <v>25.25742607576348</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.05350091352497</v>
+        <v>106.5469638406896</v>
       </c>
       <c r="E35" t="n">
-        <v>12.32426472646952</v>
+        <v>17.37102112421336</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-25, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-25, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>942.7896748053469</v>
       </c>
       <c r="E3" t="n">
-        <v>444.1278896896317</v>
+        <v>444.1843746523847</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.27646725860724</v>
+        <v>10.27657259397826</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>535.1611564002957</v>
+        <v>535.1603771507077</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>956.0949954160326</v>
+        <v>956.0934749780758</v>
       </c>
       <c r="E5" t="n">
-        <v>454.4043569482389</v>
+        <v>454.460947246363</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7786800340997977</v>
+        <v>0.77868021911693</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1210671767448917</v>
+        <v>0.1210674774409794</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03149910300071888</v>
+        <v>0.03149894320845108</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06220408958259225</v>
+        <v>0.06220376932608986</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006549596571999505</v>
+        <v>0.006549590907549705</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.1075741838812</v>
+        <v>462.1053860192876</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>872.6000812492499</v>
+        <v>872.5969963347347</v>
       </c>
       <c r="E6" t="n">
-        <v>454.4043569482389</v>
+        <v>454.460947246363</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7786800340997977</v>
+        <v>0.77868021911693</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1210671767448917</v>
+        <v>0.1210674774409794</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03149910300071888</v>
+        <v>0.03149894320845108</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06220408958259225</v>
+        <v>0.06220376932608986</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006549596571999505</v>
+        <v>0.006549590907549705</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.8413364686216</v>
+        <v>291.8462142868494</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.4804235838095</v>
+        <v>683.4851666255739</v>
       </c>
       <c r="E7" t="n">
-        <v>454.4043569482389</v>
+        <v>454.460947246363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7786800340997977</v>
+        <v>0.77868021911693</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1210671767448917</v>
+        <v>0.1210674774409794</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03149910300071888</v>
+        <v>0.03149894320845108</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06220408958259225</v>
+        <v>0.06220376932608986</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006549596571999505</v>
+        <v>0.006549590907549705</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.6770007907493</v>
+        <v>228.6787631289474</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.1829696604907</v>
+        <v>615.184307717373</v>
       </c>
       <c r="E8" t="n">
-        <v>454.4043569482389</v>
+        <v>454.460947246363</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7786800340997977</v>
+        <v>0.77868021911693</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1210671767448917</v>
+        <v>0.1210674774409794</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03149910300071888</v>
+        <v>0.03149894320845108</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06220408958259225</v>
+        <v>0.06220376932608986</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006549596571999505</v>
+        <v>0.006549590907549705</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.7547812957512</v>
+        <v>227.7565455076388</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.1925262667078</v>
+        <v>614.193866166186</v>
       </c>
       <c r="E9" t="n">
-        <v>454.4043569482389</v>
+        <v>454.460947246363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7786800340997977</v>
+        <v>0.77868021911693</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1210671767448917</v>
+        <v>0.1210674774409794</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03149910300071888</v>
+        <v>0.03149894320845108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06220408958259225</v>
+        <v>0.06220376932608986</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006549596571999505</v>
+        <v>0.006549590907549705</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.999728440484</v>
+        <v>169.0032948315318</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.4511962037479</v>
+        <v>551.4544410546354</v>
       </c>
       <c r="E10" t="n">
-        <v>454.4043569482389</v>
+        <v>454.460947246363</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7786800340997977</v>
+        <v>0.77868021911693</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1210671767448917</v>
+        <v>0.1210674774409794</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03149910300071888</v>
+        <v>0.03149894320845108</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06220408958259225</v>
+        <v>0.06220376932608986</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006549596571999505</v>
+        <v>0.006549590907549705</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.9047484657393</v>
+        <v>109.9073487142923</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>488.9726860100727</v>
+        <v>488.974891038319</v>
       </c>
       <c r="E11" t="n">
-        <v>454.4043569482389</v>
+        <v>454.460947246363</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7786800340997977</v>
+        <v>0.77868021911693</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1210671767448917</v>
+        <v>0.1210674774409794</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03149910300071888</v>
+        <v>0.03149894320845108</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06220408958259225</v>
+        <v>0.06220376932608986</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006549596571999505</v>
+        <v>0.006549590907549705</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.741156246662719</v>
+        <v>9.741256095013478</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5353110119445265</v>
+        <v>0.5353164989647869</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980436296530931</v>
+        <v>8.980481025852175</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980436296530931</v>
+        <v>8.980481025852175</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980436296530931</v>
+        <v>8.980481025852175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980436296530931</v>
+        <v>8.980481025852175</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.041621038312</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572021542801807</v>
+        <v>3.572039334153341</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944178</v>
+        <v>0.05094889585944186</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.029516872357928</v>
+        <v>1.030044532455826</v>
       </c>
       <c r="C2" t="n">
-        <v>1.077715312410909</v>
+        <v>1.078275483368826</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9552772058651021</v>
+        <v>0.9552702888483442</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5061127658951198</v>
+        <v>0.5058328562238157</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.3820897442749</v>
+        <v>51.37968456182798</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.83602729818185</v>
+        <v>34.83450250064323</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492986080032967</v>
+        <v>0.849298475331748</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.3659785314103</v>
+        <v>10.36562830703411</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8367137327700762</v>
+        <v>0.8367139353504508</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.272719335001534</v>
+        <v>3.272771122175092</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8084526278503389</v>
+        <v>0.808453181707135</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.907364579681214</v>
+        <v>2.906782631975545</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4895861854283129</v>
+        <v>0.4895446343489527</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1580111389784339</v>
+        <v>0.1579969529929027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1757094967451413</v>
+        <v>0.1756939096411545</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8992748935341949</v>
+        <v>0.8992739322359159</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39814.2203115981</v>
+        <v>39816.28810025096</v>
       </c>
       <c r="C2" t="n">
-        <v>40216.38415312939</v>
+        <v>40218.47282853632</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87006.55647842883</v>
+        <v>87004.97574604995</v>
       </c>
       <c r="C3" t="n">
-        <v>87885.41058427155</v>
+        <v>87883.81388489895</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37586.12601035064</v>
+        <v>37586.82834398324</v>
       </c>
       <c r="C4" t="n">
-        <v>37965.78384883903</v>
+        <v>37966.49327675075</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.6240286845339</v>
+        <v>506.6229658482351</v>
       </c>
       <c r="C5" t="n">
-        <v>511.7414431156909</v>
+        <v>511.7403695436719</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32630.04359733816</v>
+        <v>32630.11710254397</v>
       </c>
       <c r="C6" t="n">
-        <v>32959.63999731128</v>
+        <v>32959.71424499391</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36287.44027817238</v>
+        <v>36286.55531106605</v>
       </c>
       <c r="C7" t="n">
-        <v>36653.98007896201</v>
+        <v>36653.08617279398</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.39917458106913</v>
+        <v>30.39802576682118</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.672189418767</v>
+        <v>101.6731125877266</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.850483139110796</v>
+        <v>8.850708784399119</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.292796834294</v>
+        <v>511.2860317673826</v>
       </c>
       <c r="C3" t="n">
-        <v>6.468165460755174</v>
+        <v>6.468497642200136</v>
       </c>
       <c r="D3" t="n">
-        <v>3444.701431683588</v>
+        <v>3444.681457241983</v>
       </c>
       <c r="E3" t="n">
-        <v>56.08243018505903</v>
+        <v>56.08774094115859</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284.0784398120062</v>
+        <v>284.0826922590453</v>
       </c>
       <c r="C4" t="n">
-        <v>6.820712853646518</v>
+        <v>6.821144123874121</v>
       </c>
       <c r="D4" t="n">
-        <v>2774.927692106475</v>
+        <v>2774.92224148779</v>
       </c>
       <c r="E4" t="n">
-        <v>56.08243018505903</v>
+        <v>56.08774094115859</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.9954774675183</v>
+        <v>283.9999223840999</v>
       </c>
       <c r="C5" t="n">
-        <v>6.820712853646518</v>
+        <v>6.821144123874121</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.914940995615</v>
+        <v>1257.938497083171</v>
       </c>
       <c r="E5" t="n">
-        <v>56.08243018505903</v>
+        <v>56.08774094115859</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.1561946250496</v>
+        <v>167.1552261532959</v>
       </c>
       <c r="C6" t="n">
-        <v>6.820712853646518</v>
+        <v>6.821144123874121</v>
       </c>
       <c r="D6" t="n">
-        <v>710.0640552891914</v>
+        <v>710.0601013763342</v>
       </c>
       <c r="E6" t="n">
-        <v>56.08243018505903</v>
+        <v>56.08774094115859</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.6793451066391</v>
+        <v>158.6823578165391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5977443826684058</v>
+        <v>0.5977905012923026</v>
       </c>
       <c r="D7" t="n">
-        <v>669.7385965149909</v>
+        <v>669.7516728396772</v>
       </c>
       <c r="E7" t="n">
-        <v>56.08243018505903</v>
+        <v>56.08774094115859</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.1032934204504</v>
+        <v>171.1054469116912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5922152282075273</v>
+        <v>0.5922483283460838</v>
       </c>
       <c r="D8" t="n">
-        <v>2786.165270222406</v>
+        <v>2786.167045654421</v>
       </c>
       <c r="E8" t="n">
-        <v>14.76131756211006</v>
+        <v>14.76192372610885</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.6793449828267</v>
+        <v>158.6823576927201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5977443826684058</v>
+        <v>0.5977905012923026</v>
       </c>
       <c r="D9" t="n">
-        <v>2755.979043087052</v>
+        <v>2755.982399722937</v>
       </c>
       <c r="E9" t="n">
-        <v>14.76131756211006</v>
+        <v>14.76192372610885</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.6793451066391</v>
+        <v>158.6823578165391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5977443826684058</v>
+        <v>0.5977905012923026</v>
       </c>
       <c r="D10" t="n">
-        <v>706.0225126638347</v>
+        <v>706.0159807543228</v>
       </c>
       <c r="E10" t="n">
-        <v>70.84374774716909</v>
+        <v>70.84966466726743</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.6793451066391</v>
+        <v>158.6823578165391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5977443826684058</v>
+        <v>0.5977905012923026</v>
       </c>
       <c r="D11" t="n">
-        <v>706.0225126638347</v>
+        <v>706.0159807543228</v>
       </c>
       <c r="E11" t="n">
-        <v>70.84076282394211</v>
+        <v>70.85244033221483</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.73920969916833</v>
+        <v>73.73605337184233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5977443826684058</v>
+        <v>0.5977905012923026</v>
       </c>
       <c r="D12" t="n">
-        <v>309.2761132349195</v>
+        <v>309.2628848239428</v>
       </c>
       <c r="E12" t="n">
-        <v>70.84374774716909</v>
+        <v>70.84966466726743</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.73898140268693</v>
+        <v>73.73712449492382</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>309.2751564266125</v>
+        <v>309.2673739825961</v>
       </c>
       <c r="E13" t="n">
-        <v>70.84126707156432</v>
+        <v>70.84468107572067</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.13805866336492</v>
+        <v>73.13595619293949</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>306.7567586490956</v>
+        <v>306.74794784454</v>
       </c>
       <c r="E14" t="n">
-        <v>61.94153920183928</v>
+        <v>61.94480172669358</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.7985823423261</v>
+        <v>114.798980845144</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1680741093406826</v>
+        <v>0.1680762961513766</v>
       </c>
       <c r="D15" t="n">
-        <v>481.7394389888424</v>
+        <v>481.7411283262428</v>
       </c>
       <c r="E15" t="n">
-        <v>57.50862555715077</v>
+        <v>57.50865832531147</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.30091378777337</v>
+        <v>77.30113737271603</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1680740590896984</v>
+        <v>0.1680765528535861</v>
       </c>
       <c r="D16" t="n">
-        <v>323.7840740065716</v>
+        <v>323.7850138642111</v>
       </c>
       <c r="E16" t="n">
-        <v>57.50926093837712</v>
+        <v>57.50967231488929</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>622.8672944719269</v>
+        <v>622.8654735044265</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.46316219340622</v>
+        <v>78.4629328044664</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.27401417887403</v>
+        <v>95.27446100306639</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>398.9122973669456</v>
+        <v>398.914168219839</v>
       </c>
       <c r="E19" t="n">
-        <v>78.46316219340622</v>
+        <v>78.4629328044664</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>136.1272197768786</v>
+        <v>136.1239585373245</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2237247317617514</v>
+        <v>0.2237239919031507</v>
       </c>
       <c r="D20" t="n">
-        <v>2738.037919774521</v>
+        <v>2738.030107683308</v>
       </c>
       <c r="E20" t="n">
-        <v>9.754905960195165</v>
+        <v>9.754453792811161</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.1430617075775</v>
+        <v>122.1429559905091</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2125384951736638</v>
+        <v>0.2125377923079931</v>
       </c>
       <c r="D21" t="n">
-        <v>512.9193467484869</v>
+        <v>512.9188972653673</v>
       </c>
       <c r="E21" t="n">
-        <v>9.754905960195165</v>
+        <v>9.754453792811161</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.7602705488619</v>
+        <v>111.760655658479</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>467.9402527880847</v>
+        <v>467.9418652420516</v>
       </c>
       <c r="E22" t="n">
-        <v>622.8672944719269</v>
+        <v>622.8654735044265</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>502.4400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>622.8672944719269</v>
+        <v>622.8654735044265</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.34832957752674</v>
+        <v>71.3483858643785</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>622.8672944719269</v>
+        <v>622.8654735044265</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.2546802524544</v>
+        <v>118.249331038803</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1769201150954554</v>
+        <v>0.1769224170014491</v>
       </c>
       <c r="D25" t="n">
-        <v>2704.656610424916</v>
+        <v>2704.644871312421</v>
       </c>
       <c r="E25" t="n">
-        <v>47.75371071418353</v>
+        <v>47.75426581150555</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>508.5580970678676</v>
+        <v>508.5508582044496</v>
       </c>
       <c r="C26" t="n">
-        <v>5.887663683113106</v>
+        <v>5.887916712148033</v>
       </c>
       <c r="D26" t="n">
-        <v>3444.701431683588</v>
+        <v>3444.681457241983</v>
       </c>
       <c r="E26" t="n">
-        <v>47.1795919247316</v>
+        <v>47.18193032916076</v>
       </c>
       <c r="F26" t="n">
-        <v>6.918714615563376</v>
+        <v>6.918670104034141</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>205.7334480302333</v>
+        <v>205.7273869022583</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4460484152507421</v>
+        <v>0.4460642180918868</v>
       </c>
       <c r="D27" t="n">
-        <v>2870.711782411831</v>
+        <v>2870.698243832611</v>
       </c>
       <c r="E27" t="n">
-        <v>47.1795919247316</v>
+        <v>47.18193032916076</v>
       </c>
       <c r="F27" t="n">
-        <v>7.143667990557695</v>
+        <v>7.143623737524892</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.4737547979548</v>
+        <v>168.4752037417157</v>
       </c>
       <c r="C28" t="n">
-        <v>0.508059484694757</v>
+        <v>0.5080803805297279</v>
       </c>
       <c r="D28" t="n">
-        <v>2786.165270222406</v>
+        <v>2786.167045654421</v>
       </c>
       <c r="E28" t="n">
-        <v>14.76131756211006</v>
+        <v>14.76192372610885</v>
       </c>
       <c r="F28" t="n">
-        <v>6.901436739454441</v>
+        <v>6.901422488129346</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196.2118596846943</v>
+        <v>196.2076593942827</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4460484152507421</v>
+        <v>0.4460642180918868</v>
       </c>
       <c r="D29" t="n">
-        <v>2850.563258188724</v>
+        <v>2850.553499547414</v>
       </c>
       <c r="E29" t="n">
-        <v>61.94090948684166</v>
+        <v>61.94385405526961</v>
       </c>
       <c r="F29" t="n">
-        <v>7.101169532423182</v>
+        <v>7.101132793087329</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>136.1288951790355</v>
+        <v>136.1236203749153</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2237153494851501</v>
+        <v>0.2237188362632791</v>
       </c>
       <c r="D30" t="n">
-        <v>2738.041037123299</v>
+        <v>2738.029478479736</v>
       </c>
       <c r="E30" t="n">
-        <v>61.94090948684166</v>
+        <v>61.94385405526961</v>
       </c>
       <c r="F30" t="n">
-        <v>7.155661698241971</v>
+        <v>7.15562642470233</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
@@ -2865,19 +2865,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.2559335717088</v>
+        <v>118.248878873357</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1769231944683269</v>
+        <v>0.176921343421596</v>
       </c>
       <c r="D31" t="n">
-        <v>2704.658944994189</v>
+        <v>2704.644024760073</v>
       </c>
       <c r="E31" t="n">
-        <v>52.18599464387442</v>
+        <v>52.18946154146369</v>
       </c>
       <c r="F31" t="n">
-        <v>7.178168652752847</v>
+        <v>7.1781352560367</v>
       </c>
       <c r="G31" t="n">
         <v>100</v>
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>108.9670950649029</v>
+        <v>108.9595788806444</v>
       </c>
       <c r="C32" t="n">
-        <v>0.009018345993415463</v>
+        <v>0.009023782959745159</v>
       </c>
       <c r="D32" t="n">
-        <v>2704.658944994189</v>
+        <v>2704.644024760073</v>
       </c>
       <c r="E32" t="n">
-        <v>4.432278263462152</v>
+        <v>4.43512941180429</v>
       </c>
       <c r="F32" t="n">
-        <v>8.542035770127203</v>
+        <v>8.541718894792762</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104.745114371936</v>
+        <v>104.72134300345</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002101815111233214</v>
+        <v>0.002101979072096682</v>
       </c>
       <c r="D33" t="n">
-        <v>2697.410907603181</v>
+        <v>2697.365845340545</v>
       </c>
       <c r="E33" t="n">
-        <v>4.432278263462152</v>
+        <v>4.43512941180429</v>
       </c>
       <c r="F33" t="n">
-        <v>9.194718473864192</v>
+        <v>9.194563233815449</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.28322508468455</v>
+        <v>18.28446769332078</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002101815111233214</v>
+        <v>0.002101979072096682</v>
       </c>
       <c r="D34" t="n">
-        <v>76.729221809762</v>
+        <v>76.73442311320949</v>
       </c>
       <c r="E34" t="n">
-        <v>4.432278263462152</v>
+        <v>4.43512941180429</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20.30091641459802</v>
+        <v>20.30216014809895</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>85.82561133249541</v>
+        <v>85.83081262168673</v>
       </c>
       <c r="E35" t="n">
-        <v>4.432278263462152</v>
+        <v>4.43512941180429</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.2979714290535</v>
+        <v>496.292623563284</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3460.075786785092</v>
+        <v>3460.063994135351</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623128559422367</v>
+        <v>7.62316652833111</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>326.8030445761531</v>
       </c>
       <c r="E41" t="n">
-        <v>8.899727869725034</v>
+        <v>8.899879349027081</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.2979714290535</v>
+        <v>511.292623563284</v>
       </c>
       <c r="C42" t="n">
-        <v>6.468005866789675</v>
+        <v>6.468345436205368</v>
       </c>
       <c r="D42" t="n">
-        <v>3444.718288170559</v>
+        <v>3444.699917043438</v>
       </c>
       <c r="E42" t="n">
-        <v>8.899727869725034</v>
+        <v>8.899879349027081</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980436296530931</v>
+        <v>8.980481025852175</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980436296530931</v>
+        <v>8.980481025852175</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980436296530931</v>
+        <v>8.980481025852175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980436296530931</v>
+        <v>8.980481025852175</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.041621038312</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572021542801807</v>
+        <v>3.572039334153341</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944178</v>
+        <v>0.05094889585944186</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.261549726384573</v>
+        <v>2.260808697509219</v>
       </c>
       <c r="C2" t="n">
-        <v>2.574184421335132</v>
+        <v>2.573254951386757</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8785500011734174</v>
+        <v>0.8785793635764085</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1695412789143821</v>
+        <v>0.169623933575012</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>130.3324656974999</v>
+        <v>130.3604363607141</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.70680745010615</v>
+        <v>31.70925778133395</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.226423781056713</v>
+        <v>6.226483128637473</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.82452913156517</v>
+        <v>35.8264560444717</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.08059742166131</v>
+        <v>27.08163598518877</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8487718841761291</v>
+        <v>0.848771856901446</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.969728710271886</v>
+        <v>6.970171538728326</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.83632341227513</v>
+        <v>0.8363237065000125</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.74207768105105</v>
+        <v>1.742368852946669</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7918165611545146</v>
+        <v>0.7918208656206008</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03212531858092561</v>
+        <v>0.03227966760793523</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03328785731298241</v>
+        <v>0.03341598411381085</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04031772955759619</v>
+        <v>0.0403436646502754</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0451660043308839</v>
+        <v>0.04519499918004299</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8926565489882724</v>
+        <v>0.8926577139554452</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37561.04825260123</v>
+        <v>37566.42988822863</v>
       </c>
       <c r="C2" t="n">
-        <v>37940.45278040529</v>
+        <v>37945.88877598852</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85077.42846345817</v>
+        <v>85084.50185246694</v>
       </c>
       <c r="C3" t="n">
-        <v>85936.79642773552</v>
+        <v>85943.94126511812</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30724.31402491538</v>
+        <v>30729.67230678955</v>
       </c>
       <c r="C4" t="n">
-        <v>31034.66063122766</v>
+        <v>31040.07303716117</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>445.5611755111059</v>
+        <v>445.6158354891634</v>
       </c>
       <c r="C5" t="n">
-        <v>450.0617934455615</v>
+        <v>450.1170055446095</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28224.83440392311</v>
+        <v>28227.49238022868</v>
       </c>
       <c r="C6" t="n">
-        <v>28509.93374133647</v>
+        <v>28512.61856588756</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28106.60217516459</v>
+        <v>28110.57032910225</v>
       </c>
       <c r="C7" t="n">
-        <v>28390.507247641</v>
+        <v>28394.51548394167</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.48876420585109</v>
+        <v>21.48769704102903</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.3921340237506</v>
+        <v>105.3926834566134</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.993055128199474</v>
+        <v>8.993175629391606</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25881.91624125476</v>
+        <v>25881.95525531422</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1866.680947602899</v>
+        <v>1866.950732353494</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17060.25185428247</v>
+        <v>17060.42672448967</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.80924418917</v>
+        <v>5906.83866453797</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.402330334017</v>
+        <v>4267.423585204428</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.75077401319</v>
+        <v>15840.82967285583</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27881.64329613928</v>
+        <v>27882.04265495172</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7867467445219115</v>
+        <v>0.7869155883177235</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.8669944218004</v>
+        <v>459.8634106908241</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>864.7707469612742</v>
+        <v>864.7666949755153</v>
       </c>
       <c r="E6" t="n">
         <v>515.469582375</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>306.319323227843</v>
+        <v>306.318448009117</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>694.2749241440597</v>
+        <v>694.273969721042</v>
       </c>
       <c r="E7" t="n">
         <v>515.469582375</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238.2676817712415</v>
+        <v>238.2655125381438</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>620.6221129075293</v>
+        <v>620.6197822094879</v>
       </c>
       <c r="E8" t="n">
         <v>515.469582375</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>237.3436032127901</v>
+        <v>237.3414355066718</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>619.6293454182085</v>
+        <v>619.6270168028739</v>
       </c>
       <c r="E9" t="n">
         <v>515.469582375</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.4717852187528</v>
+        <v>177.4694570450229</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>555.6883465226938</v>
+        <v>555.6858738684379</v>
       </c>
       <c r="E10" t="n">
         <v>515.469582375</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.1587189439382</v>
+        <v>110.1580164480766</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>484.5804066320786</v>
+        <v>484.5796681367306</v>
       </c>
       <c r="E11" t="n">
         <v>515.469582375</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.5355537754776</v>
+        <v>501.5306110146043</v>
       </c>
       <c r="C3" t="n">
-        <v>8.070982369236548</v>
+        <v>8.070764159394328</v>
       </c>
       <c r="D3" t="n">
-        <v>3402.450296583654</v>
+        <v>3402.439729066041</v>
       </c>
       <c r="E3" t="n">
-        <v>61.26621706611077</v>
+        <v>61.26425167342889</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.4540310589796</v>
+        <v>298.4532805496423</v>
       </c>
       <c r="C4" t="n">
-        <v>8.402419209600486</v>
+        <v>8.402329917036136</v>
       </c>
       <c r="D4" t="n">
-        <v>2752.557607892493</v>
+        <v>2752.558998631846</v>
       </c>
       <c r="E4" t="n">
-        <v>61.26621706611077</v>
+        <v>61.26425167342889</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.7576352880114</v>
+        <v>297.757511121278</v>
       </c>
       <c r="C5" t="n">
-        <v>8.402419209600486</v>
+        <v>8.402329917036136</v>
       </c>
       <c r="D5" t="n">
-        <v>1332.408682890605</v>
+        <v>1332.408078257365</v>
       </c>
       <c r="E5" t="n">
-        <v>61.26621706611077</v>
+        <v>61.26425167342889</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.9888674211122</v>
+        <v>168.9885860823322</v>
       </c>
       <c r="C6" t="n">
-        <v>8.402419209600486</v>
+        <v>8.402329917036136</v>
       </c>
       <c r="D6" t="n">
-        <v>718.9032978998584</v>
+        <v>718.9020279188284</v>
       </c>
       <c r="E6" t="n">
-        <v>61.26621706611077</v>
+        <v>61.26425167342889</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.1146445704915</v>
+        <v>166.1122567540595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7205152044633073</v>
+        <v>0.7204727989733744</v>
       </c>
       <c r="D7" t="n">
-        <v>702.0993083333572</v>
+        <v>702.088886415909</v>
       </c>
       <c r="E7" t="n">
-        <v>61.26621706611077</v>
+        <v>61.26425167342889</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.9085934489049</v>
+        <v>177.9070354863611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7134244771011535</v>
+        <v>0.7134058928210525</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.491575950646</v>
+        <v>2793.490801245431</v>
       </c>
       <c r="E8" t="n">
-        <v>17.15976280545123</v>
+        <v>17.16021102855676</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.1146444312548</v>
+        <v>166.1122566148271</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7205152044633073</v>
+        <v>0.7204727989733744</v>
       </c>
       <c r="D9" t="n">
-        <v>2763.968672641447</v>
+        <v>2763.966203373616</v>
       </c>
       <c r="E9" t="n">
-        <v>17.15976280545123</v>
+        <v>17.16021102855676</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.1146445704915</v>
+        <v>166.1122567540595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7205152044633073</v>
+        <v>0.7204727989733744</v>
       </c>
       <c r="D10" t="n">
-        <v>737.2232297368539</v>
+        <v>737.1974219192548</v>
       </c>
       <c r="E10" t="n">
-        <v>78.42597987156199</v>
+        <v>78.42446270198565</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166.1146445704915</v>
+        <v>166.1122567540595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7205152044633073</v>
+        <v>0.7204727989733744</v>
       </c>
       <c r="D11" t="n">
-        <v>737.2232297368539</v>
+        <v>737.1974219192548</v>
       </c>
       <c r="E11" t="n">
-        <v>78.42327171643586</v>
+        <v>78.42655062254532</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.43940380308851</v>
+        <v>65.43713164168008</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7205152044633073</v>
+        <v>0.7204727989733744</v>
       </c>
       <c r="D12" t="n">
-        <v>274.5117718665007</v>
+        <v>274.5022600465604</v>
       </c>
       <c r="E12" t="n">
-        <v>78.42597987156199</v>
+        <v>78.42446270198565</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.43812103011476</v>
+        <v>65.43894707231243</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>274.5064018666909</v>
+        <v>274.5098598802387</v>
       </c>
       <c r="E13" t="n">
-        <v>78.42606444130163</v>
+        <v>78.42434582868798</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.43812103011476</v>
+        <v>65.43894707231243</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>274.5064018666909</v>
+        <v>274.5098598802387</v>
       </c>
       <c r="E14" t="n">
-        <v>78.42606444130163</v>
+        <v>78.42434582868798</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>111.7248042059603</v>
+        <v>111.7252558417096</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1518861888071328</v>
+        <v>0.1518884695636602</v>
       </c>
       <c r="D15" t="n">
-        <v>468.7164865957851</v>
+        <v>468.7183990081878</v>
       </c>
       <c r="E15" t="n">
-        <v>61.05511293195038</v>
+        <v>61.05421693782381</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.94858459227129</v>
+        <v>76.94880591043494</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1518862624259307</v>
+        <v>0.1518922822227928</v>
       </c>
       <c r="D16" t="n">
-        <v>322.2932313806433</v>
+        <v>322.2941645149256</v>
       </c>
       <c r="E16" t="n">
-        <v>61.05504331708827</v>
+        <v>61.0548843248908</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.87503227624093</v>
+        <v>93.87569451620625</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>393.0547601406208</v>
+        <v>393.0575329393556</v>
       </c>
       <c r="E19" t="n">
         <v>81.37817054266749</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>124.6759982635531</v>
+        <v>124.6769831372075</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2299414732457893</v>
+        <v>0.229940656054568</v>
       </c>
       <c r="D20" t="n">
-        <v>2692.83828573028</v>
+        <v>2692.841942230581</v>
       </c>
       <c r="E20" t="n">
-        <v>14.11013211360504</v>
+        <v>14.10957202177552</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>123.0214557296693</v>
+        <v>123.0213415459311</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2184443995834999</v>
+        <v>0.2184436232518396</v>
       </c>
       <c r="D21" t="n">
-        <v>516.6547671530296</v>
+        <v>516.6542814882854</v>
       </c>
       <c r="E21" t="n">
-        <v>14.11013211360504</v>
+        <v>14.10957202177552</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.7611677832175</v>
+        <v>108.7615925095713</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>455.3830095083316</v>
+        <v>455.3847878375752</v>
       </c>
       <c r="E22" t="n">
         <v>646.0076231702778</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.17209854901367</v>
+        <v>71.17218197198719</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113.2746376403283</v>
+        <v>113.2750934427443</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1598801987443504</v>
+        <v>0.1598825995406949</v>
       </c>
       <c r="D25" t="n">
-        <v>2641.954356320256</v>
+        <v>2641.95567293156</v>
       </c>
       <c r="E25" t="n">
-        <v>46.94505415356119</v>
+        <v>46.94554747089039</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>498.926213766211</v>
+        <v>498.9206067994696</v>
       </c>
       <c r="C26" t="n">
-        <v>7.532022842673363</v>
+        <v>7.531756063348176</v>
       </c>
       <c r="D26" t="n">
-        <v>3402.450296583654</v>
+        <v>3402.439729066041</v>
       </c>
       <c r="E26" t="n">
-        <v>61.26621706611077</v>
+        <v>61.26425167342889</v>
       </c>
       <c r="F26" t="n">
-        <v>6.756516042680459</v>
+        <v>6.756517721141464</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>190.6795556595069</v>
+        <v>190.6774971344154</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5336760384762748</v>
+        <v>0.5336658450491603</v>
       </c>
       <c r="D27" t="n">
-        <v>2833.849378061278</v>
+        <v>2833.84545835937</v>
       </c>
       <c r="E27" t="n">
-        <v>61.26621706611077</v>
+        <v>61.26425167342889</v>
       </c>
       <c r="F27" t="n">
-        <v>6.984871926679515</v>
+        <v>6.984872014627389</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.053814201057</v>
+        <v>175.0533053433329</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6174755593166747</v>
+        <v>0.6174697437323609</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.491575950646</v>
+        <v>2793.490801245431</v>
       </c>
       <c r="E28" t="n">
-        <v>17.15976280545123</v>
+        <v>17.16021102855676</v>
       </c>
       <c r="F28" t="n">
-        <v>6.8315060385432</v>
+        <v>6.831508469586115</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.6523809672491</v>
+        <v>186.65045463998</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5336760384762748</v>
+        <v>0.5336658450491603</v>
       </c>
       <c r="D29" t="n">
-        <v>2825.019009442334</v>
+        <v>2825.015376415529</v>
       </c>
       <c r="E29" t="n">
-        <v>78.42597987156199</v>
+        <v>78.42446270198565</v>
       </c>
       <c r="F29" t="n">
-        <v>6.96575074957624</v>
+        <v>6.96575137580472</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.6772795825722</v>
+        <v>124.6769899400367</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2299410956273342</v>
+        <v>0.2299390423544257</v>
       </c>
       <c r="D30" t="n">
-        <v>2692.843695236676</v>
+        <v>2692.841970951169</v>
       </c>
       <c r="E30" t="n">
-        <v>78.42597987156199</v>
+        <v>78.42446270198565</v>
       </c>
       <c r="F30" t="n">
-        <v>7.030588592135373</v>
+        <v>7.030588233109407</v>
       </c>
       <c r="G30" t="n">
-        <v>99.0956224351067</v>
+        <v>99.09556276928825</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.2756424049397</v>
+        <v>113.2751651820826</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1598854910662497</v>
+        <v>0.1598829774078762</v>
       </c>
       <c r="D31" t="n">
-        <v>2641.958637860907</v>
+        <v>2641.956007215726</v>
       </c>
       <c r="E31" t="n">
-        <v>64.3159210931728</v>
+        <v>64.31579323505223</v>
       </c>
       <c r="F31" t="n">
-        <v>7.061787971305774</v>
+        <v>7.06178809494223</v>
       </c>
       <c r="G31" t="n">
-        <v>97.56633885966423</v>
+        <v>97.56625402787698</v>
       </c>
     </row>
     <row r="32">
@@ -5301,19 +5301,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.19249679251686</v>
+        <v>78.19089270702312</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03299138772775063</v>
+        <v>0.0329883723992994</v>
       </c>
       <c r="D32" t="n">
-        <v>2641.958637860907</v>
+        <v>2641.956007215726</v>
       </c>
       <c r="E32" t="n">
-        <v>17.37102112421336</v>
+        <v>17.36946150379718</v>
       </c>
       <c r="F32" t="n">
-        <v>7.77410750238514</v>
+        <v>7.774141918133248</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.23571848661413</v>
+        <v>23.23516602368716</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002851432675190182</v>
+        <v>0.002851337491520768</v>
       </c>
       <c r="D33" t="n">
-        <v>2474.589974908293</v>
+        <v>2474.605820145155</v>
       </c>
       <c r="E33" t="n">
-        <v>17.37102112421336</v>
+        <v>17.36946150379718</v>
       </c>
       <c r="F33" t="n">
-        <v>8.362829331149891</v>
+        <v>8.362897743216696</v>
       </c>
       <c r="G33" t="n">
-        <v>97.19044190628347</v>
+        <v>97.19113221283845</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.23571848661413</v>
+        <v>23.23516602368716</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002851432675190182</v>
+        <v>0.002851337491520768</v>
       </c>
       <c r="D34" t="n">
-        <v>97.45071452704491</v>
+        <v>97.44840381053164</v>
       </c>
       <c r="E34" t="n">
-        <v>17.37102112421336</v>
+        <v>17.36946150379718</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.25742607576348</v>
+        <v>25.25687321589066</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>106.5469638406896</v>
+        <v>106.5446531650878</v>
       </c>
       <c r="E35" t="n">
-        <v>17.37102112421336</v>
+        <v>17.36946150379718</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.2979714290535</v>
+        <v>496.292623563284</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3460.075786785092</v>
+        <v>3460.063994135351</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623128559422367</v>
+        <v>7.62316652833111</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.2979714290535</v>
+        <v>511.292623563284</v>
       </c>
       <c r="C42" t="n">
-        <v>6.468005866789675</v>
+        <v>6.468345436205368</v>
       </c>
       <c r="D42" t="n">
-        <v>3444.718288170559</v>
+        <v>3444.699917043438</v>
       </c>
       <c r="E42" t="n">
-        <v>8.899727869725034</v>
+        <v>8.899879349027081</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
